--- a/uploads/Excel_0.xlsx
+++ b/uploads/Excel_0.xlsx
@@ -15,51 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>ลำดับ</t>
-  </si>
-  <si>
-    <t>วันที่</t>
-  </si>
-  <si>
-    <t>เลขที่</t>
-  </si>
-  <si>
-    <t>Rev.</t>
-  </si>
-  <si>
-    <t>รหัสลูกค้า</t>
-  </si>
-  <si>
-    <t>ชื่อเรียก</t>
-  </si>
-  <si>
-    <t>ชื่อลูกค้า</t>
-  </si>
-  <si>
-    <t>รายละเอียดสินค้า</t>
-  </si>
-  <si>
-    <t>ผู้ติดต่อ</t>
-  </si>
-  <si>
-    <t>ชื่อพนักงานขาย</t>
-  </si>
-  <si>
-    <t>เครดิต</t>
-  </si>
-  <si>
-    <t>หมายเหตุ</t>
-  </si>
-  <si>
-    <t>จำนวน</t>
-  </si>
-  <si>
-    <t>หน่วยละ</t>
-  </si>
-  <si>
-    <t>ราคารวม</t>
+    <t>เทส</t>
   </si>
 </sst>
 </file>
@@ -399,7 +357,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -407,51 +365,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
